--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -112,6 +112,7 @@
     <sheet name="2019-12-06" sheetId="104" state="visible" r:id="rId104"/>
     <sheet name="2019-12-09" sheetId="105" state="visible" r:id="rId105"/>
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3915,6 +3916,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.7%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-350601723.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>325292211.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>128.82</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-229520673.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>82466817.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>97541146.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>32220293.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002241</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>歌尔股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-4.6%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-124381481.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>145224643.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>107793521.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002439</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>启明星辰</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>151984118.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -113,6 +113,7 @@
     <sheet name="2019-12-09" sheetId="105" state="visible" r:id="rId105"/>
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4302,6 +4303,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>82.61</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16548659.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>140046296.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>293892302.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>61.48</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>136168892.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>127.78</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>47380829.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-201526793.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-94252973.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>49724942.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>216407891.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>56.92</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96859534.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -114,6 +114,7 @@
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4689,6 +4690,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-125916694.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>307000190.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>129.52</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>314785322.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-256765013.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>45673059.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80766414.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>157868513.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.52%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>120018663.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>207671580.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-113722482.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -115,6 +115,7 @@
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5462,6 +5463,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.81%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>859279144.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>193043770.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-307244096.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-194027930.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>259416203.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TCL集团</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.89%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>157056400.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>128.83</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-21540434.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-103239736.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100.26</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>103065864.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-138414359.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -116,6 +116,7 @@
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5849,6 +5850,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-88167125.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>431927141.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>263095034.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-305112757.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>336420113.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>254035182.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TCL集团</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25933958.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002572</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>索菲亚</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>289335881.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>103.29</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>101246963.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>74633130.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -117,6 +117,7 @@
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6236,6 +6237,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>110022853.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-81832116.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>130.94</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>157393702.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>135070049.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>186549174.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96351212.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>107.64</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>115702227.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002572</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>索菲亚</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.15%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>102541951.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>53374210.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-105224337.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -118,6 +118,7 @@
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
     <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6623,6 +6624,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>395973190.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>67059251.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>129.86</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-297520875.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>94881087.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>107.73</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>81484862.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>58.08</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-85619040.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>81.65000000000001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>45132116.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-52926057.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-140301742.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>59548963.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -119,6 +119,8 @@
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
     <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
     <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet name="2019-12-20" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet name="2019-12-23" sheetId="115" state="visible" r:id="rId115"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7010,6 +7012,778 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-296805480.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-244587514.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>83.14</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-229041057.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>324772798.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>63559615.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>259054247.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>49093928.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>176.05</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-115773043.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>111088758.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-173115470.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>128.14</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-396955455.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>257774346.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>339888439.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-253364923.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>133163854.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-3.5%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-89228122.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>41622269.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>45248884.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TCL集团</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-75566831.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>300033</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>同花顺</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>105.16</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>187867587.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/深股通前十大成交股.xlsx
+++ b/datas/深股通前十大成交股.xlsx
@@ -121,6 +121,20 @@
     <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
     <sheet name="2019-12-20" sheetId="114" state="visible" r:id="rId114"/>
     <sheet name="2019-12-23" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet name="2019-12-27" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet name="2019-12-30" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet name="2019-12-31" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet name="2020-01-02" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet name="2020-01-03" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet name="2020-01-06" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet name="2020-01-07" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="2020-01-08" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="2020-01-09" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet name="2020-01-10" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet name="2020-01-13" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet name="2020-01-14" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet name="2020-01-15" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet name="2020-01-16" sheetId="129" state="visible" r:id="rId129"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7784,6 +7798,1550 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>129</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>223638133.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-293007810.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>293224383.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>446088381.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>392268724.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>82.97</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>212404603.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>300088</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>长信科技</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-4.6%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>28554583.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.02%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>132716460.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>300033</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>同花顺</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-4.5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-219083141.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-99405954.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>132.82</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>466997780.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-245774167.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>83625969.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>260550968.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>333389751.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>58.23</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>79739556.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>35.19</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>270107928.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>14995373.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-222592550.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>110.81</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-4251092.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>133.01</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16771139.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>232617928.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-90529551.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-198088803.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>162678776.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>109116474.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-56730719.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-168077047.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16150389.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000568</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>泸州老窖</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>86.68000000000001</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-1416773.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>727773353.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>132.08</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>30905628.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>253941828.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>121532384.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>45759172.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25951332.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>144361234.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>255879124.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>206242103.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-39749385.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -8162,6 +9720,3866 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>133251304.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96581422.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>220596276.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>130.55</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-75624743.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-139611067.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>30223041.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>289821941.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-15595503.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000661</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>长春高新</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>472</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>176409753.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>194241363.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>60983359.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-905748741.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>249879321.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002050</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-238671177.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>149736513.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-26203157.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>300014</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>亿纬锂能</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.92%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>333174293.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>75406163.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>111033866.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>178424423.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5132533.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>999124748.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>129.37</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>282180599.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>243564475.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>58.05</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>169630963.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.75%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-11398872.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-135491398.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-28731928.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000338</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>潍柴动力</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>255041195.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000661</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>长春高新</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>489.78</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>36001599.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>79775144.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607271757.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>179480999.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>114.88</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>544624418.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>128.89</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-427319784.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>58.28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>249155572.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>46006864.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TCL集团</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>305190727.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>176282358.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002050</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-38292659.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-57804487.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>137319774.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.95%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>339995876.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>71156944.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>59.45</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>391442473.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-132378688.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-154708817.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>130.77</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14762836.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>197291428.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>300015</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>爱尔眼科</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.77%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>344172790.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002050</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-11496058.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>133.62</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1142243725.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>352860514.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-346489808.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-172359161.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-265324427.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>118.69</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>361084361.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>264134212.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>302194085.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-191381931.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-148522669.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>139.66</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>734410854.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>570407056.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-33272632.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>119.35</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>231312013.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>530009756.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>85985870.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>64238521.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-54172512.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>128979695.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>19453585.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>474348393.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-127839448.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8428540.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>99168362.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>69.81</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>152280168.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-125239303.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>57579830.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-6113557.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>34027178.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000860</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>顺鑫农业</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>302624287.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-225403000.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-198346981.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>96279939.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>174832284.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>89.68000000000001</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-112117995.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>16445795.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>130945234.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>97636324.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2294967.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-83359416.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>414442812.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-410061715.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-527786590.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>441749968.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>140.66</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-8749599.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>317102375.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>351655125.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>300015</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>爱尔眼科</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>268406510.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>114915757.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-11533090.0元</t>
         </is>
       </c>
     </row>
